--- a/genshin/430677854202283921_2020-09-03_14-10-02.xlsx
+++ b/genshin/430677854202283921_2020-09-03_14-10-02.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2020-12-12 02:50:41</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44177.11853009259</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -618,10 +632,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2020-09-03 22:44:17</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44077.94741898148</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -697,10 +709,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2020-09-03 19:44:09</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44077.82232638889</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -764,10 +774,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2020-09-03 19:00:29</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44077.79200231482</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -827,10 +835,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2020-09-03 18:09:12</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44077.75638888889</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -902,10 +908,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2020-09-03 18:08:05</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44077.75561342593</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -969,10 +973,8 @@
           <t>3450487030</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2020-09-03 17:58:21</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44077.74885416667</v>
       </c>
       <c r="I8" t="n">
         <v>2</v>
@@ -1040,10 +1042,8 @@
           <t>3449959463</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2020-09-03 17:52:18</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44077.74465277778</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1115,10 +1115,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2020-09-03 17:47:05</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44077.74103009259</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1191,10 +1189,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2020-09-03 17:16:59</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44077.72012731482</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1266,10 +1262,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2020-09-03 17:08:12</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44077.71402777778</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1337,10 +1331,8 @@
           <t>3450248180</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2020-09-03 16:46:54</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44077.69923611111</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1404,10 +1396,8 @@
           <t>3450241781</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2020-09-03 16:44:41</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44077.69769675926</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -1471,10 +1461,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2020-09-03 16:43:59</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44077.69721064815</v>
       </c>
       <c r="I15" t="n">
         <v>11</v>
@@ -1550,10 +1538,8 @@
           <t>3450239060</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2020-09-03 16:43:06</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44077.69659722222</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1613,10 +1599,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2020-09-03 16:41:55</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44077.69577546296</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1680,10 +1664,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2020-09-03 16:10:45</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44077.67413194444</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1751,10 +1733,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2020-09-03 16:09:30</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44077.67326388889</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1826,10 +1806,8 @@
           <t>3450140008</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2020-09-03 16:04:40</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44077.66990740741</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
@@ -1901,10 +1879,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2020-09-03 16:02:05</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44077.66811342593</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1972,10 +1948,8 @@
           <t>3450081852</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2020-09-03 15:43:46</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44077.65539351852</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
@@ -2035,10 +2009,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2020-09-03 15:40:39</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44077.65322916667</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2110,10 +2082,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2020-09-03 15:37:34</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44077.65108796296</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2185,10 +2155,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2020-09-03 15:28:27</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44077.64475694444</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2264,10 +2232,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2020-09-03 15:22:34</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44077.6406712963</v>
       </c>
       <c r="I26" t="n">
         <v>2</v>
@@ -2343,10 +2309,8 @@
           <t>3450015647</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2020-09-03 15:17:52</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44077.6374074074</v>
       </c>
       <c r="I27" t="n">
         <v>2</v>
@@ -2415,10 +2379,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2020-09-03 15:09:53</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44077.63186342592</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2494,10 +2456,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2020-09-03 15:04:34</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44077.6281712963</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2573,10 +2533,8 @@
           <t>3449959463</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:58:13</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44077.62376157408</v>
       </c>
       <c r="I30" t="n">
         <v>3</v>
@@ -2644,10 +2602,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:48:47</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44077.61721064815</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2715,10 +2671,8 @@
           <t>3449929446</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:46:02</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44077.61530092593</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2790,10 +2744,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:44:50</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44077.61446759259</v>
       </c>
       <c r="I33" t="n">
         <v>1</v>
@@ -2857,10 +2809,8 @@
           <t>3449924365</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:43:02</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44077.6132175926</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2936,10 +2886,8 @@
           <t>3449923155</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:41:37</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44077.6122337963</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3007,10 +2955,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:36:55</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44077.60896990741</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3078,10 +3024,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:33:04</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44077.6062962963</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3149,10 +3093,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:30:47</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44077.60471064815</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3220,10 +3162,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:27:11</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44077.60221064815</v>
       </c>
       <c r="I39" t="n">
         <v>17</v>
@@ -3295,10 +3235,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:24:26</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44077.60030092593</v>
       </c>
       <c r="I40" t="n">
         <v>2</v>
@@ -3370,10 +3308,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:23:54</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44077.59993055555</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3446,10 +3382,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:18:31</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44077.59619212963</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3517,10 +3451,8 @@
           <t>3449854021</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:16:52</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44077.59504629629</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3592,10 +3524,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:16:49</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44077.59501157407</v>
       </c>
       <c r="I44" t="n">
         <v>22</v>
@@ -3667,10 +3597,8 @@
           <t>3449860761</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:15:40</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44077.59421296296</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3738,10 +3666,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:15:26</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44077.59405092592</v>
       </c>
       <c r="I46" t="n">
         <v>9</v>
@@ -3801,10 +3727,8 @@
           <t>3449854021</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:15:03</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44077.59378472222</v>
       </c>
       <c r="I47" t="n">
         <v>5</v>
@@ -3876,10 +3800,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:14:15</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44077.59322916667</v>
       </c>
       <c r="I48" t="n">
         <v>47</v>
@@ -3951,10 +3873,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:14:07</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44077.59313657408</v>
       </c>
       <c r="I49" t="n">
         <v>61</v>
@@ -4022,10 +3942,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:13:33</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44077.59274305555</v>
       </c>
       <c r="I50" t="n">
         <v>1</v>
@@ -4101,10 +4019,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:12:21</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44077.59190972222</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4168,10 +4084,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:12:09</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44077.59177083334</v>
       </c>
       <c r="I52" t="n">
         <v>2</v>
@@ -4235,10 +4149,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:12:02</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44077.59168981481</v>
       </c>
       <c r="I53" t="n">
         <v>1</v>
@@ -4302,10 +4214,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:11:52</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44077.59157407407</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
